--- a/study_guides/midterm_1_review/tophat_vliw_scheduling_with_reordering_question.xlsx
+++ b/study_guides/midterm_1_review/tophat_vliw_scheduling_with_reordering_question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrabb\Desktop\Wonsun Ahn\cs1541\CS1541_Fall2020\study_guides\midterm_1_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D879EBA1-97DC-406E-9EB1-FDDC4ECAC672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6EA5CB-62CA-4EFE-9A90-0EAE074B1C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14535" yWindow="75" windowWidth="13650" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16845" yWindow="75" windowWidth="13650" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -143,6 +140,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,7 +428,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I17"/>
+      <selection activeCell="B5" sqref="B5:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,549 +438,555 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>6</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>7</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>8</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>9</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>10</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>11</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>12</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>13</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>14</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>15</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>16</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>17</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>18</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>19</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>20</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>21</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>22</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>23</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>24</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>4</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>6</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>7</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>8</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>9</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>10</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
